--- a/Documentation/issues.xlsx
+++ b/Documentation/issues.xlsx
@@ -1589,13 +1589,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
